--- a/STTM-investment_portfolio_date_v4.xlsx
+++ b/STTM-investment_portfolio_date_v4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CONANYB\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872010D3-4FA1-4D92-AF66-B6E2AEF24E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D348EF-7C2B-4775-B574-881D8B362F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="780" windowWidth="24165" windowHeight="12510" activeTab="2" xr2:uid="{0551AC56-035F-4B75-8F95-9F7806F412FC}"/>
   </bookViews>
@@ -1523,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E06644-CE73-4432-88FA-0AEEF1955512}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1719,7 +1719,7 @@
         <v>107</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>51</v>
